--- a/Cleaned Data/Activity Risk Level.xlsx
+++ b/Cleaned Data/Activity Risk Level.xlsx
@@ -5,16 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Documents/GitHub/covid-data-challenge/Cleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{821B7A91-34C8-A345-A4EE-2DBE0B5A8492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153F82A4-1AA9-E149-B4DF-824B3ECAEA82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15940" yWindow="1880" windowWidth="18320" windowHeight="17440" xr2:uid="{8345BEA0-D276-3642-9842-A3E8411E0AA3}"/>
+    <workbookView xWindow="8640" yWindow="460" windowWidth="22560" windowHeight="19300" xr2:uid="{8345BEA0-D276-3642-9842-A3E8411E0AA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$15:$F$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$14</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$15:$F$15</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$14</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$15</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$15:$F$15</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$14</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$15</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Low Risk</t>
   </si>
@@ -122,9 +133,6 @@
     <t>Going to the movie theater</t>
   </si>
   <si>
-    <t>Attedning a large concert</t>
-  </si>
-  <si>
     <t>Going to a bar</t>
   </si>
   <si>
@@ -138,6 +146,15 @@
   </si>
   <si>
     <t>Have the surveyor check off each activity, average out from 1-5 each activity and produce a final number for the scale</t>
+  </si>
+  <si>
+    <t>Attending a large concert</t>
+  </si>
+  <si>
+    <t>Risk Level</t>
+  </si>
+  <si>
+    <t>Activities</t>
   </si>
 </sst>
 </file>
@@ -489,141 +506,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F0928E-A73D-9547-842E-581D37A7535A}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
-    <col min="8" max="8" width="46.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" customWidth="1"/>
+    <col min="10" max="10" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G15" t="s">
         <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
